--- a/data/StepwiseTestParameters.xlsx
+++ b/data/StepwiseTestParameters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A72ADBD-B1FE-46D3-AD77-A7D60BE23193}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,6 +759,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-103.9897</v>
+      </c>
+      <c r="C23">
+        <v>70.001000000000005</v>
+      </c>
+      <c r="D23">
+        <v>1.5687</v>
+      </c>
+      <c r="E23">
+        <v>0.69</v>
+      </c>
+      <c r="F23">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
